--- a/documents/SOULARD-PASQUAL_Nolan_Fiche_Competences.xlsx
+++ b/documents/SOULARD-PASQUAL_Nolan_Fiche_Competences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\OneDrive\Bureau\portefolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E4BB3-E72B-42C0-A68C-65ECB016B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA76D31-8F8A-460B-96BD-323C17F1FE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">tp Faille </t>
   </si>
   <si>
-    <t>projet The Gougars (ecole direct)</t>
-  </si>
-  <si>
     <t xml:space="preserve">projet RPG SIM </t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>06/01/2025 au 14/02/2025</t>
+  </si>
+  <si>
+    <t>Transport School</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="14" t="s">
@@ -1469,7 +1469,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="14" t="s">
@@ -1575,7 +1575,7 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="14" t="s">
@@ -1863,10 +1863,10 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>27</v>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>27</v>

--- a/documents/SOULARD-PASQUAL_Nolan_Fiche_Competences.xlsx
+++ b/documents/SOULARD-PASQUAL_Nolan_Fiche_Competences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\OneDrive\Bureau\portefolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA76D31-8F8A-460B-96BD-323C17F1FE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39343094-543B-4C55-8CB5-60A7A3198FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
